--- a/results/comparaison/WM/azimuth/median_raw_data.xlsx
+++ b/results/comparaison/WM/azimuth/median_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:31">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,255 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>110.4707632332839</v>
+        <v>83.43906881168486</v>
       </c>
       <c r="C2">
-        <v>117.4394389327882</v>
+        <v>90.93035593777708</v>
       </c>
       <c r="D2">
-        <v>132.9181564743344</v>
+        <v>104.8150147287191</v>
       </c>
       <c r="E2">
-        <v>109.5427241034914</v>
+        <v>120.6689721530716</v>
       </c>
       <c r="F2">
-        <v>98.39771892359158</v>
+        <v>107.0331807804662</v>
+      </c>
+      <c r="G2">
+        <v>6.852301030579089</v>
+      </c>
+      <c r="H2">
+        <v>90.25146912575872</v>
+      </c>
+      <c r="I2">
+        <v>18.8791236026625</v>
+      </c>
+      <c r="J2">
+        <v>1.064482153702955</v>
+      </c>
+      <c r="K2">
+        <v>140.520992364726</v>
+      </c>
+      <c r="L2">
+        <v>54.31745081199997</v>
+      </c>
+      <c r="M2">
+        <v>39.34901560368668</v>
+      </c>
+      <c r="N2">
+        <v>105.5095046504044</v>
+      </c>
+      <c r="O2">
+        <v>11.31139796208849</v>
+      </c>
+      <c r="P2">
+        <v>174.6908889253149</v>
+      </c>
+      <c r="Q2">
+        <v>164.8395847096783</v>
+      </c>
+      <c r="R2">
+        <v>106.0922420488395</v>
+      </c>
+      <c r="S2">
+        <v>100.0044998674878</v>
+      </c>
+      <c r="T2">
+        <v>48.86254172152863</v>
+      </c>
+      <c r="U2">
+        <v>140.9470985519982</v>
+      </c>
+      <c r="V2">
+        <v>8.666439054145881</v>
+      </c>
+      <c r="W2">
+        <v>66.77917374375849</v>
+      </c>
+      <c r="X2">
+        <v>134.2886616263125</v>
+      </c>
+      <c r="Y2">
+        <v>87.89816301284282</v>
+      </c>
+      <c r="Z2">
+        <v>165.3140116335798</v>
+      </c>
+      <c r="AA2">
+        <v>12.49105461863104</v>
+      </c>
+      <c r="AB2">
+        <v>1.028236454452771</v>
+      </c>
+      <c r="AC2">
+        <v>25.32568155470352</v>
+      </c>
+      <c r="AD2">
+        <v>51.28629526679125</v>
+      </c>
+      <c r="AE2">
+        <v>169.3247940494324</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>144.4120728720156</v>
-      </c>
-      <c r="C3">
-        <v>152.2120683444326</v>
-      </c>
-      <c r="D3">
-        <v>156.9669625549947</v>
+        <v>134.7230521599126</v>
       </c>
       <c r="E3">
-        <v>138.6247324697486</v>
+        <v>156.5897724765638</v>
       </c>
       <c r="F3">
-        <v>141.8531976276203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>150.2199978534584</v>
-      </c>
-      <c r="C4">
-        <v>155.9630137722675</v>
-      </c>
-      <c r="D4">
-        <v>159.1954615618293</v>
-      </c>
-      <c r="E4">
-        <v>143.710669908958</v>
-      </c>
-      <c r="F4">
-        <v>144.051215632039</v>
+        <v>139.259459938789</v>
+      </c>
+      <c r="G3">
+        <v>83.4236169274285</v>
+      </c>
+      <c r="H3">
+        <v>82.07983804865505</v>
+      </c>
+      <c r="I3">
+        <v>17.37290905569619</v>
+      </c>
+      <c r="J3">
+        <v>165.0493694056825</v>
+      </c>
+      <c r="K3">
+        <v>150.5753649656165</v>
+      </c>
+      <c r="L3">
+        <v>42.18659959671167</v>
+      </c>
+      <c r="M3">
+        <v>46.55143753465549</v>
+      </c>
+      <c r="O3">
+        <v>6.492379476268872</v>
+      </c>
+      <c r="P3">
+        <v>151.9407344932377</v>
+      </c>
+      <c r="Q3">
+        <v>132.0668602730523</v>
+      </c>
+      <c r="R3">
+        <v>112.6277744850459</v>
+      </c>
+      <c r="S3">
+        <v>64.93823425687171</v>
+      </c>
+      <c r="V3">
+        <v>25.64618458487326</v>
+      </c>
+      <c r="W3">
+        <v>75.93267612416557</v>
+      </c>
+      <c r="X3">
+        <v>153.4127931918237</v>
+      </c>
+      <c r="Y3">
+        <v>95.8676627788672</v>
+      </c>
+      <c r="Z3">
+        <v>149.1902595556788</v>
+      </c>
+      <c r="AA3">
+        <v>0.7178347530339418</v>
+      </c>
+      <c r="AB3">
+        <v>13.58181733943591</v>
+      </c>
+      <c r="AC3">
+        <v>32.73035023283519</v>
+      </c>
+      <c r="AD3">
+        <v>25.59847848822909</v>
+      </c>
+      <c r="AE3">
+        <v>0.6056324307234835</v>
       </c>
     </row>
   </sheetData>
